--- a/Dostoor_Egy_Structured.xlsx
+++ b/Dostoor_Egy_Structured.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8387645-9508-4AA4-9154-6BCEEECF8A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD6872C9-E91B-40E9-9F7C-B6E30034FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="297">
   <si>
     <t>Bab</t>
   </si>
@@ -1310,31 +1310,19 @@
     <t>الباب السادس: الأحكام العامة والانتقالية</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ١٩٩٢</t>
-  </si>
-  <si>
     <t>مادة (٢٢٣)
 العلم الوطنى لجمهورية مصر العربية مكون من ثلاثة ألوان هى الأسود، والأبيض، والأحمر، وبه نسر مأخوذ عن "نسر صلاح الدين" باللون الأصفر الذهبى، ويحدد القانون شعار الجمهورية، وأوسمتها، وشاراتها، وخاتمها، ونشيدها الوطنى.
 وإهانة العلم المصرى جريمة يعاقب عليها القانون.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ١٩٩٣</t>
-  </si>
-  <si>
     <t>مادة (٢٢٤)
 كل ما قررته القوانين واللوائح من أحكام قبل صدور الدستور، يبقى نافذاً، ولا يجوز تعديلها، ولا إلغاؤها إلا وفقاً للقواعد، والإجراءات المقررة فى الدستور.
 وتلتزم الدولة بإصدار القوانين المنفذة لأحكام هذا الدستور.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ١٩٩٤</t>
-  </si>
-  <si>
     <t>مادة (٢٢٥)
 تنشر القوانين فى الجريدة الرسمية خلال خمسة عشر يوماً من تاريخ إصدارها، ويُعمل بها بعد ثلاثين يوماً من اليوم التالى لتاريخ نشرها، إلا إذا حددت لذلك ميعاداً آخر.
 ولا تسرى أحكام القوانين إلا على ما يقع من تاريخ العمل بها، ومع ذلك يجوز فى غير المواد الجنائية والضريبية، النص فى القانون على خلاف ذلك، بموافقة أغلبية ثلثي أعضاء مجلس النواب.</t>
-  </si>
-  <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ١٩٩٥</t>
   </si>
   <si>
     <t>مادة (٢٢٦)
@@ -1345,28 +1333,16 @@
 وفى جميع الأحوال، لا يجوز تعديل النصوص المتعلقة بإعادة انتخاب رئيس الجمهورية، أو بمبادئ الحرية، أو المساواة، ما لم يكن التعديل متعلقاً بالمزيد من الضمانات.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ١٩٩٦</t>
-  </si>
-  <si>
     <t>مادة (٢٢٧)
 يشكل الدستور بديباجته وجميع نصوصه نسيجاً مترابطاً، وكـلاً لا يتجزأ، وتتكامل أحكامه فى وحدة عضوية متماسكة.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ١٩٩٧</t>
-  </si>
-  <si>
     <t>مادة (٢٢٨)
 تتولى اللجنة العليا للانتخابات، ولجنة الانتخابات الرئاسية القائمتين فى تاريخ العمل بالدستور، الإشراف الكامل على أول انتخابات تشريعية، ورئاسية تالية للعمل به، وتؤول إلى الهيئة الوطنية للانتخابات فور تشكيلها أموال اللجنتين.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ١٩٩٨</t>
-  </si>
-  <si>
     <t>مادة (٢٢٩)
 تكون انتخابات مجلس النواب التالية لتاريخ العمل بالدستور وفقاً لأحكام المادة (١٠٢) منه.</t>
-  </si>
-  <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ١٩٩٩</t>
   </si>
   <si>
     <t>مادة (٢٣٠)
@@ -1374,29 +1350,17 @@
 وفى جميع الأحوال تبدأ الإجراءات الانتخابية التالية خلال مدة لا تجاوز ستة أشهر من تاريخ العمل بالدستور.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠٠</t>
-  </si>
-  <si>
     <t>مادة (٢٣١)
 تبدأ مدة الرئاسة التالية للعمل بهذا الدستور من تاريخ إعلان النتيجة النهائية للانتخابات.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠١</t>
-  </si>
-  <si>
     <t>مادة (٢٣٢)
 يستمر رئيس الجمهورية المؤقت فى مباشرة السلطات المقررة لرئيس الجمهورية فى الدستور حتى أداء رئيس الجمهورية المنتخب اليمين الدستورية.</t>
-  </si>
-  <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠٢</t>
   </si>
   <si>
     <t>مادة (٢٣٣)
 إذا قام مانع مؤقت يحول دون مباشرة رئيس الجمهورية المؤقت لسلطاته، حل محله رئيس مجلس الوزراء.
 وعند خلو منصب رئيس الجمهورية المؤقت للاستقالة، أو الوفاة، أو العجز الدائم عن العمل، أو لأى سبب آخر، حل محله بالصلاحيات ذاتها أقدم نواب رئيس المحكمة الدستورية العليا.</t>
-  </si>
-  <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠٣</t>
   </si>
   <si>
     <t>مادة (٢٣٤) (١)
@@ -1405,14 +1369,8 @@
 (١) مستبدلة بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٩.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠٤</t>
-  </si>
-  <si>
     <t>مادة (٢٣٥)
 يصدر مجلس النواب فى أول دور انعقاد له بعد العمل بهذا الدستور قانوناً لتنظيم بناء وترميم الكنائس، بما يكفل حرية ممارسة المسيحيين لشعائرهم الدينية.</t>
-  </si>
-  <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠٥</t>
   </si>
   <si>
     <t>مادة (٢٣٦)
@@ -1420,44 +1378,26 @@
 وتعمل الدولة على وضع وتنفيذ مشروعات تعيد سكان النوبة إلى مناطقهم الأصلية وتنميتها خلال عشر سنوات، وذلك على النحو الذى ينظمه القانون.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠٦</t>
-  </si>
-  <si>
     <t>مادة (٢٣٧)
 تلتزم الدولة بمواجهة الإرهاب، بكافة صوره وأشكاله، وتعقب مصادر تمويله باعتباره تهديداً للوطن والمواطنين، مع ضمان الحقوق والحريات العامة.
 وينظم القانون أحكام وإجراءات مكافحة الإرهاب والتعويض العادل عن الأضرار الناجمة عنه وبسببه.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠٧</t>
-  </si>
-  <si>
     <t>مادة (٢٣٨)
 تضمن الدولة تنفيذ التزامها بتخصيص الحد الأدنى لمعدلات الإنفاق الحكومى على التعليم، والتعليم العالى، والصحة، والبحث العلمى المقررة فى هذا الدستور تدريجياً اعتباراً من تاريخ العمل به، على أن تلتزم به كاملاً فى موازنة الدولة للسنة المالية ٢٠١٧/٢٠١٦.
 وتلتزم الدولة بمد التعليم الإلزامى حتى تمام المرحلة الثانوية بطريقة تدريجية تكتمل فى العام الدراسى ٢٠١٧/٢٠١٦.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠٨</t>
-  </si>
-  <si>
     <t>مادة (٢٣٩)
 يصدر مجلس النواب قانونا بتنظيم قواعد ندب القضاة وأعضاء الجهات والهيئات القضائية، بما يضمن إلغاء الندب الكلى والجزئى لغير الجهات القضائية أو اللجان ذات الاختصاص القضائى أو لإدارة شئون العدالة أو الإشراف على الانتخابات، وذلك خلال مدة لا تتجاوز خمس سنوات من تاريخ العمل بهذا الدستور.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠٠٩</t>
-  </si>
-  <si>
     <t>مادة (٢٤٠)
 تكفل الدولة توفير الإمكانيات المادية والبشرية المتعلقة باستئناف الأحكام الصادرة فى الجنايات، وذلك خلال عشر سنوات من تاريخ العمل بهذا الدستور، وينظم القانون ذلك.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٠</t>
-  </si>
-  <si>
     <t>مادة (٢٤١)
 يلتزم مجلس النواب فى أول دور انعقاد له بعد نفاذ هذا الدستور بإصدار قانون للعدالة الانتقالية يكفل كشف الحقيقة، والمحاسبة، واقتراح أطر المصالحة الوطنية، وتعويض الضحايا، وذلك وفقاً للمعايير الدولية.</t>
-  </si>
-  <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١١</t>
   </si>
   <si>
     <t>241(1)</t>
@@ -1469,14 +1409,8 @@
 (١) مضافة بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٩.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٢</t>
-  </si>
-  <si>
     <t>مادة (٢٤٢)
 يستمر العمل بنظام الإدارة المحلية القائم إلى أن يتم تطبيق النظام المنصوص عليه فى الدستور بالتدريج خلال خمس سنوات من تاريخ نفاذه، ودون إخلال بأحكام مادة ( ١٨٠ ) من هذا الدستور.</t>
-  </si>
-  <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٣</t>
   </si>
   <si>
     <t>مادة (٢٤٣) (١)
@@ -1485,18 +1419,12 @@
 (١)، (٢) مستبدلتان بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٩.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٤</t>
-  </si>
-  <si>
     <t>مادة (٢٤٤) (٢)
 تعمل الدولة على تمثيل الشباب والمسيحيين والأشخاص ذوى الإعاقة والمصريين المقيمين فى الخارج تمثيلاً ملائماً فى مجلس النواب، وذلك على النحو الذى يحدده القانون.
 ___________________
 (١)، (٢) مستبدلتان بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٩.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٥</t>
-  </si>
-  <si>
     <t>244(1)</t>
   </si>
   <si>
@@ -1506,38 +1434,23 @@
 (٣) مضافة بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٩.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٦</t>
-  </si>
-  <si>
     <t>مادة (٢٤٥)
 ينقل العاملون بمجلس الشورى الموجودون بالخدمة فى تاريخ العمل بالدستور إلى مجلس النواب، بذات درجاتهم، وأقدمياتهم التى يشغلونها فى هذا التاريخ، ويُحتفظ لهم بالمرتبات، والبدلات، والمكافآت، وسائر الحقوق المالية المقررة لهم بصفة شخصية، وتؤول إلى مجلس النواب أموال مجلس الشورى كاملة.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٧</t>
-  </si>
-  <si>
     <t>مادة (٢٤٦)
 يُلغى الإعلان الدستورى الصادر فى الخامس من يولية سنة ٢٠١٣، والإعلان الدستورى الصادر فى الثامن من يوليو سنة ٢٠١٣، وأى نصوص دستورية أو أحكام وردت فى الدستور الصادر سنة ٢٠١٢ ولم تتناولها هذه الوثيقة الدستورية تعتبر ملغاة من تاريخ العمل بها، ويبقى نافذاً ما ترتب عليها من آثار.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٨</t>
-  </si>
-  <si>
     <t>مادة (٢٤٧)
 يُعمل بهذه الوثيقة الدستورية من تاريخ إعلان موافقة الشعب عليها فى الاستفتاء، وذلك بأغلبية عدد الأصوات الصحيحة للمشاركين فيه.</t>
   </si>
   <si>
-    <t>الأحكام العامة والانتقالية (١):  حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٩</t>
-  </si>
-  <si>
     <t>مادة (٢٤٨)
 يختص مجلس الشيوخ بدراسة واقتراح ما يراه كفيلاً بتوسيد دعائم الديمقراطية، ودعم السلام الاجتماعى والمقومات الأساسية للمجتمع وقيمه العليا والحقوق والحريات والواجبات العامة، وتعميق النظام الديموقراطى، وتوسيع مجالاته.</t>
   </si>
   <si>
     <t>الباب السابع: مجلس الشيوخ</t>
-  </si>
-  <si>
-    <t>مجلس الشيوخ (١):  مضاف بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٩.</t>
   </si>
   <si>
     <t>مادة (٢٤٩)
@@ -1571,6 +1484,42 @@
   <si>
     <t>مادة (٢٥٤)
 تسرى فى شأن مجلس الشيوخ الأحكام الواردة بالدستور فى المواد ١٠٣، ١٠٤، ١٠٥،، ١٠٧، ١٠٨، ١٠٩، ١١٠، ١١١، ١١٢، ١١٣، ١١٤، ١١٥، ١١٦، ١١٧، ١١٨، ١١٩، ١٢٠، (١٢١/ فقرة ١، ٢)، ١٣٢، ١٣٣، ١٣٦، ١٣٧. وذلك فيما لا يتعارض مع الأحكام الواردة فى هذا الباب، وعلى أن يباشر الاختصاصات المقررة فى المواد المذكورة مجلس الشيوخ ورئيسه.</t>
+  </si>
+  <si>
+    <t>لديباجة
+بسم الله الرحمن الرحيم
+هــذا دستورنــا
+مصر هبة النيل للمصريين، وهبة المصريين للإنسانية.
+مصر العربية بعبقرية موقعها وتاريخها قلب العالم كله، فهى ملتقى حضاراته وثقافاته، ومفترق طرق مواصلاته البحرية واتصالاته، وهى رأس أفريقيا المطل على المتوسط، ومصب أعظم أنهارها: النيل.
+هذه مصر، وطن خالد للمصريين، ورسالة سلام ومحبة لكل الشعوب.
+فى مطلع التاريخ، لاح فجر الضمير الإنسانى وتجلى في قلوب أجدادنا العظام فاتحدت إرادتهم الخيرة، وأسســوا أول دولة مركزية، ضبطت ونظمت حياة المصريين على ضفاف النيل، وأبدعوا أروع آيات الحضارة، وتطلعت قلوبهم إلى السماء قبل أن تعرف الأرض الأديان السماوية الثلاثة.
+مصر مهد الدين، وراية مجد الأديان السماوية.
+فى أرضها شب كليم الله موسى عليه السلام، وتجلى له النور الإلهى، وتنزلت عليه الرسالة في طور سينين.
+وعلى أرضها احتضن المصريون السيدة العذراء ووليدها، ثم قدموا آلاف الشهداء دفاعا عن كنيسة السيد المسيح عليه السلام.
+وحين بُعث خاتم المرسلين سيدنا محمد عليه الصلاة والسلام، للناس كافة، ليتمم مكارم الأخلاق، انفتحت قلوبنا وعقولنا لنور الإسلام، فكنا خير أجناد الأرض جهادا في سبيل الله، ونشرنا رسالة الحق وعلوم الدين فى العالمين.
+هذه مصر وطن نعيش فيه ويعيش فينا.
+وفى العصر الحديث، استنارت العقول، وبلغت الإنسانية رشدها، وتقدمت أمم وشعوب على طريق العلم، رافعة رايات الحرية والمساواة، وأسس محمد على الدولة المصرية الحديثة، وعمادها جيش وطنى، ودعا ابن الأزهر رفاعة أن يكون الوطن "محلا للسعادة المشتركة بين بنيه"، وجاهدنا نحن المصريين للحاق بركب التقدم، وقدمنا الشهداء والتضحيات، فى العديد من الهبات والانتفاضات والثورات، حتى انتصر جيشنا الوطني للإرادة الشعبية الجارفة فى ثورة " ٢٥ يناير – ٣٠ يونيو" التى دعت إلى العيش بحرية وكرامة إنسانية تحت ظلال العدالة الاجتماعية، واستعادت للوطن إرادته المستقلة.
+هذه الثورة امتداد لمسيرة نضال وطني كان من أبرز رموزه أحمد عرابى، ومصطفى كامل، ومحمد فريد، وتتويج لثورتين عظيمتين فى تاريخنا الحديث:
+ثورة ١٩١٩ التى أزاحت الحماية البريطانية عن كاهل مصر والمصريين، وأرست مبدأ المواطنة والمساواة بين أبناء الجماعة الوطنية، وسعى زعيمها سعد زغلول وخليفته مصطفى النحاس على طريق الديمقراطية، مؤكدين أن "الحق فوق القوة، والأمة فوق الحكومة"، ووضع طلعت حرب خلالها حجر الأساس للاقتصاد الوطنى.
+وثورة " ٢٣ يوليو ١٩٥٢ " التى قادها الزعيم الخالد جمال عبد الناصر، واحتضنتها الإرادة الشعبية، فتحقق حلم الأجيال فى الجلاء والاستقلال، وأكدت مصر انتماءها العربى وانفتحت على قارتها الأفريقية، والعالم الإسلامى، وساندت حركات التحرير عبر القارات، وسارت بخطى ثابتة على طريق التنمية والعدالة الاجتماعية.
+هذه الثورة امتداد للمسيرة الثورية للوطنية المصرية، وتوكيد للعروة الوثقى بين الشعب المصري وجيشه الوطني، الذى حمل أمانة ومسئولية حماية الوطن، والتى حققنا بفضلها الانتصار فى معاركنا الكبرى، من دحر العدوان الثلاثى عام ١٩٥٦، إلى هزيمة الهزيمة بنصر أكتوبر المجيد الذى منح للرئيس أنور السادات مكانة خاصة فى تاريخنا القريب.
+وثورة ٢٥ يناير- ٣٠ يونيو، فريدة بين الثورات الكبرى فى تاريخ الإنسانية، بكثافة المشاركة الشعبية التى قدرت بعشرات الملايين، وبدور بارز لشباب متطلع لمستقبل مشرق، وبتجاوز الجماهير للطبقات والإيديولوجيات نحو أفاق وطنية وإنسانية أكثر رحابة، وبحماية جيش الشعب للإرادة الشعبية وبمباركة الأزهر الشريف والكنيسة الوطنية لها، وهى أيضاً فريدة بسلميتها وبطموحها أن تحقق الحرية والعدالة الاجتماعية معاً.
+هذه الثورة إشارة وبشارة، إشارة إلى ماض ما زال حاضراً، وبشارة بمستقبل تتطلع إليه الإنسانية كلها.
+فالعالم الآن يوشك أن يطوى الصفحات الأخيرة من العصر الذى مزقته صراعات المصالح بين الشرق والغرب، وبين الشمال والجنوب، واشتعلت فيه النزاعات والحروب، بين الطبقات والشعوب، وزادت المخاطر التى تهدد الوجود الإنسانى، وتهدد الحياة على الأرض التى استخلفنا الله عليها، وتأمل الإنسانية أن تنتقل من عصر الرشد إلى عصر الحكمة، لنبني عالماً إنسانياً جديداً تسوده الحقيقة والعدل، وتصان فيه الحريات وحقوق الإنسان، ونحن المصريين نرى فى ثورتنا عودة لإسهامنا فى كتابة تاريخ جديد للإنسانية.
+نحن نؤمن أننا قادرون أن نستلهم الماضى وأن نستنهض الحاضر، وأن نشق الطريق إلى المستقبل. قادرون أن ننهض بالوطن وينهض بنا.
+نحن نؤمن بأن لكل مواطن الحق بالعيش على أرض هذا الوطن فى أمن وأمان، وأن لكل مواطن حقاً فى يومه وفى غده.
+نحن نؤمن بالديمقراطية طريقاً ومستقبلاً وأسلوب حياة، وبالتعددية السياسية، وبالتداول السلمي للسلطة، ونؤكد حق الشعب فى صنع مستقبله، هو - وحده - مصدر السلطات، الحرية والكرامة الإنسانية والعدالة الاجتماعية حق لكل مواطن، ولنا ولأجيالنا القادمة - السيادة فى وطن سيد.
+نحن الآن نكتب دستوراً يجسد حلم الأجيال بمجتمع مزدهر متلاحم، ودولة عادلة تحقق طموحات اليوم والغد للفرد والمجتمع.
+نحن - الآن - نكتب دستوراً يستكمل بناء دولة ديمقراطية حديثة، حكومتها مدنية.
+نكتب دستوراً نغلق به الباب أمام أي فساد وأى استبداد، ونعالج فيه جراح الماضى من زمن الفلاح الفصيح القديم، وحتى ضحايا الإهمال وشهداء الثورة فى زماننا، ونرفع الظلم عن شعبنا الذى عانى طويلاً.
+نكتب دستوراً يؤكد أن مبادئ الشريعة الإسلامية المصدر الرئيس للتشريع، وأن المرجع فى تفسيرها هو ما تضمنه مجموع أحكام المحكمة الدستورية العليا فى ذلك الشأن(*).
+نكتب دستوراً يفتح أمامنا طريق المستقبل، ويتسق مع الاعلان العالمى لحقوق الإنسان الذى شاركنا فى صياغته ووافقنا عليه.
+نكتب دستوراً يصون حرياتنا، ويحمى الوطن من كل ما يهدده أو يهدد وحدتنا الوطنية.
+نكتب دستوراً يحقق المساواة بيننا فى الحقوق والواجبات دون أى تمييز.
+نحن المواطنات والمواطنين، نحن الشعب المصرى، السيد فى الوطن السيد، هذه إرادتنا، وهذا دستور ثورتنا.
+هــذا دستورنــا.
+_____________________
+(*) يتم إيداع الأحكام في المضابط.</t>
   </si>
 </sst>
 </file>
@@ -1612,13 +1561,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1953,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="C259" workbookViewId="0">
+      <selection activeCell="F224" sqref="F224:F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2450,7 +2398,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="80.25">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>2</v>
       </c>
       <c r="B26">
@@ -2490,7 +2438,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="333">
-      <c r="A28" s="3">
+      <c r="A28">
         <v>2</v>
       </c>
       <c r="B28">
@@ -2510,7 +2458,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="144">
-      <c r="A29" s="3">
+      <c r="A29">
         <v>2</v>
       </c>
       <c r="B29">
@@ -2530,7 +2478,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="238.5">
-      <c r="A30" s="3">
+      <c r="A30">
         <v>2</v>
       </c>
       <c r="B30">
@@ -2550,7 +2498,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="64.5">
-      <c r="A31" s="3">
+      <c r="A31">
         <v>2</v>
       </c>
       <c r="B31">
@@ -2570,7 +2518,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="64.5">
-      <c r="A32" s="3">
+      <c r="A32">
         <v>2</v>
       </c>
       <c r="B32">
@@ -2590,7 +2538,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="331.5">
-      <c r="A33" s="3">
+      <c r="A33">
         <v>2</v>
       </c>
       <c r="B33">
@@ -2610,7 +2558,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="48">
-      <c r="A34" s="3">
+      <c r="A34">
         <v>2</v>
       </c>
       <c r="B34">
@@ -2630,7 +2578,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="48">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>2</v>
       </c>
       <c r="B35">
@@ -2650,7 +2598,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="80.25">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>2</v>
       </c>
       <c r="B36">
@@ -2670,7 +2618,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="48">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>2</v>
       </c>
       <c r="B37">
@@ -2690,7 +2638,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="64.5">
-      <c r="A38" s="3">
+      <c r="A38">
         <v>2</v>
       </c>
       <c r="B38">
@@ -2710,7 +2658,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="363.75">
-      <c r="A39" s="3">
+      <c r="A39">
         <v>2</v>
       </c>
       <c r="B39">
@@ -2730,7 +2678,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="48">
-      <c r="A40" s="3">
+      <c r="A40">
         <v>2</v>
       </c>
       <c r="B40">
@@ -2750,7 +2698,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="48">
-      <c r="A41" s="3">
+      <c r="A41">
         <v>2</v>
       </c>
       <c r="B41">
@@ -2770,7 +2718,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="80.25">
-      <c r="A42" s="3">
+      <c r="A42">
         <v>2</v>
       </c>
       <c r="B42">
@@ -2790,7 +2738,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="206.25">
-      <c r="A43" s="3">
+      <c r="A43">
         <v>2</v>
       </c>
       <c r="B43">
@@ -2810,7 +2758,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="64.5">
-      <c r="A44" s="3">
+      <c r="A44">
         <v>2</v>
       </c>
       <c r="B44">
@@ -2830,7 +2778,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="159.75">
-      <c r="A45" s="3">
+      <c r="A45">
         <v>2</v>
       </c>
       <c r="B45">
@@ -2850,7 +2798,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="159.75">
-      <c r="A46" s="3">
+      <c r="A46">
         <v>2</v>
       </c>
       <c r="B46">
@@ -2870,7 +2818,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="96">
-      <c r="A47" s="3">
+      <c r="A47">
         <v>2</v>
       </c>
       <c r="B47">
@@ -2890,7 +2838,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="48">
-      <c r="A48" s="3">
+      <c r="A48">
         <v>2</v>
       </c>
       <c r="B48">
@@ -2910,7 +2858,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="113.25">
-      <c r="A49" s="3">
+      <c r="A49">
         <v>2</v>
       </c>
       <c r="B49">
@@ -2930,7 +2878,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="125.25">
-      <c r="A50" s="3">
+      <c r="A50">
         <v>2</v>
       </c>
       <c r="B50">
@@ -2950,7 +2898,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="129">
-      <c r="A51" s="3">
+      <c r="A51">
         <v>2</v>
       </c>
       <c r="B51">
@@ -2970,7 +2918,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="48">
-      <c r="A52" s="3">
+      <c r="A52">
         <v>3</v>
       </c>
       <c r="B52">
@@ -6275,11 +6223,8 @@
       <c r="E224" t="s">
         <v>258</v>
       </c>
-      <c r="F224" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="96">
+    </row>
+    <row r="225" spans="1:5" ht="96">
       <c r="A225">
         <v>6</v>
       </c>
@@ -6290,16 +6235,13 @@
         <v>223</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E225" t="s">
         <v>258</v>
       </c>
-      <c r="F225" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="80.25">
+    </row>
+    <row r="226" spans="1:5" ht="80.25">
       <c r="A226">
         <v>6</v>
       </c>
@@ -6310,16 +6252,13 @@
         <v>224</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E226" t="s">
         <v>258</v>
       </c>
-      <c r="F226" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="129">
+    </row>
+    <row r="227" spans="1:5" ht="129">
       <c r="A227">
         <v>6</v>
       </c>
@@ -6330,16 +6269,13 @@
         <v>225</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E227" t="s">
         <v>258</v>
       </c>
-      <c r="F227" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="306">
+    </row>
+    <row r="228" spans="1:5" ht="306">
       <c r="A228">
         <v>6</v>
       </c>
@@ -6350,16 +6286,13 @@
         <v>226</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E228" t="s">
         <v>258</v>
       </c>
-      <c r="F228" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="48">
+    </row>
+    <row r="229" spans="1:5" ht="48">
       <c r="A229">
         <v>6</v>
       </c>
@@ -6370,16 +6303,13 @@
         <v>227</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E229" t="s">
         <v>258</v>
       </c>
-      <c r="F229" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="80.25">
+    </row>
+    <row r="230" spans="1:5" ht="80.25">
       <c r="A230">
         <v>6</v>
       </c>
@@ -6390,16 +6320,13 @@
         <v>228</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E230" t="s">
         <v>258</v>
       </c>
-      <c r="F230" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="48">
+    </row>
+    <row r="231" spans="1:5" ht="48">
       <c r="A231">
         <v>6</v>
       </c>
@@ -6410,16 +6337,13 @@
         <v>229</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E231" t="s">
         <v>258</v>
       </c>
-      <c r="F231" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="113.25">
+    </row>
+    <row r="232" spans="1:5" ht="113.25">
       <c r="A232">
         <v>6</v>
       </c>
@@ -6430,16 +6354,13 @@
         <v>230</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E232" t="s">
         <v>258</v>
       </c>
-      <c r="F232" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="48">
+    </row>
+    <row r="233" spans="1:5" ht="48">
       <c r="A233">
         <v>6</v>
       </c>
@@ -6450,16 +6371,13 @@
         <v>231</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E233" t="s">
         <v>258</v>
       </c>
-      <c r="F233" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="64.5">
+    </row>
+    <row r="234" spans="1:5" ht="64.5">
       <c r="A234">
         <v>6</v>
       </c>
@@ -6470,16 +6388,13 @@
         <v>232</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E234" t="s">
         <v>258</v>
       </c>
-      <c r="F234" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="113.25">
+    </row>
+    <row r="235" spans="1:5" ht="113.25">
       <c r="A235">
         <v>6</v>
       </c>
@@ -6490,16 +6405,13 @@
         <v>233</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E235" t="s">
         <v>258</v>
       </c>
-      <c r="F235" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="139.5">
+    </row>
+    <row r="236" spans="1:5" ht="139.5">
       <c r="A236">
         <v>6</v>
       </c>
@@ -6510,16 +6422,13 @@
         <v>234</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E236" t="s">
         <v>258</v>
       </c>
-      <c r="F236" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="64.5">
+    </row>
+    <row r="237" spans="1:5" ht="64.5">
       <c r="A237">
         <v>6</v>
       </c>
@@ -6530,16 +6439,13 @@
         <v>235</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E237" t="s">
         <v>258</v>
       </c>
-      <c r="F237" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="177.75">
+    </row>
+    <row r="238" spans="1:5" ht="177.75">
       <c r="A238">
         <v>6</v>
       </c>
@@ -6550,16 +6456,13 @@
         <v>236</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E238" t="s">
         <v>258</v>
       </c>
-      <c r="F238" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="96">
+    </row>
+    <row r="239" spans="1:5" ht="96">
       <c r="A239">
         <v>6</v>
       </c>
@@ -6570,16 +6473,13 @@
         <v>237</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E239" t="s">
         <v>258</v>
       </c>
-      <c r="F239" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="129">
+    </row>
+    <row r="240" spans="1:5" ht="129">
       <c r="A240">
         <v>6</v>
       </c>
@@ -6590,16 +6490,13 @@
         <v>238</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E240" t="s">
         <v>258</v>
       </c>
-      <c r="F240" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="113.25">
+    </row>
+    <row r="241" spans="1:5" ht="113.25">
       <c r="A241">
         <v>6</v>
       </c>
@@ -6610,16 +6507,13 @@
         <v>239</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E241" t="s">
         <v>258</v>
       </c>
-      <c r="F241" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="64.5">
+    </row>
+    <row r="242" spans="1:5" ht="64.5">
       <c r="A242">
         <v>6</v>
       </c>
@@ -6630,16 +6524,13 @@
         <v>240</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="E242" t="s">
         <v>258</v>
       </c>
-      <c r="F242" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="80.25">
+    </row>
+    <row r="243" spans="1:5" ht="80.25">
       <c r="A243">
         <v>6</v>
       </c>
@@ -6650,16 +6541,13 @@
         <v>241</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="E243" t="s">
         <v>258</v>
       </c>
-      <c r="F243" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="156">
+    </row>
+    <row r="244" spans="1:5" ht="156">
       <c r="A244">
         <v>6</v>
       </c>
@@ -6667,19 +6555,16 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E244" t="s">
         <v>258</v>
       </c>
-      <c r="F244" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="80.25">
+    </row>
+    <row r="245" spans="1:5" ht="80.25">
       <c r="A245">
         <v>6</v>
       </c>
@@ -6690,16 +6575,13 @@
         <v>242</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E245" t="s">
         <v>258</v>
       </c>
-      <c r="F245" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="139.5">
+    </row>
+    <row r="246" spans="1:5" ht="139.5">
       <c r="A246">
         <v>6</v>
       </c>
@@ -6710,16 +6592,13 @@
         <v>243</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E246" t="s">
         <v>258</v>
       </c>
-      <c r="F246" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" ht="156">
+    </row>
+    <row r="247" spans="1:5" ht="156">
       <c r="A247">
         <v>6</v>
       </c>
@@ -6730,16 +6609,13 @@
         <v>244</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E247" t="s">
         <v>258</v>
       </c>
-      <c r="F247" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="139.5">
+    </row>
+    <row r="248" spans="1:5" ht="139.5">
       <c r="A248">
         <v>6</v>
       </c>
@@ -6747,19 +6623,16 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="E248" t="s">
         <v>258</v>
       </c>
-      <c r="F248" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" ht="113.25">
+    </row>
+    <row r="249" spans="1:5" ht="113.25">
       <c r="A249">
         <v>6</v>
       </c>
@@ -6770,16 +6643,13 @@
         <v>245</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="E249" t="s">
         <v>258</v>
       </c>
-      <c r="F249" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="96">
+    </row>
+    <row r="250" spans="1:5" ht="96">
       <c r="A250">
         <v>6</v>
       </c>
@@ -6790,16 +6660,13 @@
         <v>246</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="E250" t="s">
         <v>258</v>
       </c>
-      <c r="F250" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="64.5">
+    </row>
+    <row r="251" spans="1:5" ht="64.5">
       <c r="A251">
         <v>6</v>
       </c>
@@ -6810,16 +6677,13 @@
         <v>247</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E251" t="s">
         <v>258</v>
       </c>
-      <c r="F251" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="96">
+    </row>
+    <row r="252" spans="1:5" ht="96">
       <c r="A252">
         <v>7</v>
       </c>
@@ -6830,16 +6694,13 @@
         <v>248</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="E252" t="s">
-        <v>317</v>
-      </c>
-      <c r="F252" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="209.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="209.25">
       <c r="A253">
         <v>7</v>
       </c>
@@ -6850,16 +6711,13 @@
         <v>249</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="E253" t="s">
-        <v>317</v>
-      </c>
-      <c r="F253" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="145.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="145.5">
       <c r="A254">
         <v>7</v>
       </c>
@@ -6870,16 +6728,13 @@
         <v>250</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="E254" t="s">
-        <v>317</v>
-      </c>
-      <c r="F254" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="145.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="145.5">
       <c r="A255">
         <v>7</v>
       </c>
@@ -6890,16 +6745,13 @@
         <v>251</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="E255" t="s">
-        <v>317</v>
-      </c>
-      <c r="F255" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="48">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="48">
       <c r="A256">
         <v>7</v>
       </c>
@@ -6910,16 +6762,13 @@
         <v>252</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="E256" t="s">
-        <v>317</v>
-      </c>
-      <c r="F256" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="48">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="48">
       <c r="A257">
         <v>7</v>
       </c>
@@ -6930,16 +6779,13 @@
         <v>253</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="E257" t="s">
-        <v>317</v>
-      </c>
-      <c r="F257" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" ht="113.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="113.25">
       <c r="A258">
         <v>7</v>
       </c>
@@ -6950,13 +6796,24 @@
         <v>254</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="E258" t="s">
-        <v>317</v>
-      </c>
-      <c r="F258" t="s">
-        <v>318</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="409.6">
+      <c r="A259">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Dostoor_Egy_Structured.xlsx
+++ b/Dostoor_Egy_Structured.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27728"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD6872C9-E91B-40E9-9F7C-B6E30034FFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0BF3516-C66A-4141-B615-46CEF77DAE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="300">
   <si>
     <t>Bab</t>
   </si>
@@ -1310,6 +1310,10 @@
     <t>الباب السادس: الأحكام العامة والانتقالية</t>
   </si>
   <si>
+    <t>الأحكام العامة والانتقالية (١)
+(١) حُذف عنوانا الفصلين الأول والثانى من هذا الباب بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٩.</t>
+  </si>
+  <si>
     <t>مادة (٢٢٣)
 العلم الوطنى لجمهورية مصر العربية مكون من ثلاثة ألوان هى الأسود، والأبيض، والأحمر، وبه نسر مأخوذ عن "نسر صلاح الدين" باللون الأصفر الذهبى، ويحدد القانون شعار الجمهورية، وأوسمتها، وشاراتها، وخاتمها، ونشيدها الوطنى.
 وإهانة العلم المصرى جريمة يعاقب عليها القانون.</t>
@@ -1451,6 +1455,10 @@
   </si>
   <si>
     <t>الباب السابع: مجلس الشيوخ</t>
+  </si>
+  <si>
+    <t>مجلس الشيوخ (١)
+(١) مضاف بموجب الاستفتاء على تعديل الدستور الذى أجرى بالخارج أيام: ١٩، ٢٠، ٢١، وبالداخل أيام: ٢٠، ٢١، ٢٢ من إبريل سنة ٢٠١٩.</t>
   </si>
   <si>
     <t>مادة (٢٤٩)
@@ -1520,6 +1528,9 @@
 هــذا دستورنــا.
 _____________________
 (*) يتم إيداع الأحكام في المضابط.</t>
+  </si>
+  <si>
+    <t>الديباجة</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1915,7 @@
   <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C259" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224:F259"/>
+      <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6207,7 +6218,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="32.25">
+    <row r="224" spans="1:6" ht="48">
       <c r="A224">
         <v>6</v>
       </c>
@@ -6223,8 +6234,11 @@
       <c r="E224" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="96">
+      <c r="F224" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="80.25">
       <c r="A225">
         <v>6</v>
       </c>
@@ -6235,13 +6249,16 @@
         <v>223</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E225" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="80.25">
+      <c r="F225" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="64.5">
       <c r="A226">
         <v>6</v>
       </c>
@@ -6252,13 +6269,16 @@
         <v>224</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E226" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="129">
+      <c r="F226" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="96">
       <c r="A227">
         <v>6</v>
       </c>
@@ -6269,13 +6289,16 @@
         <v>225</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E227" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="306">
+      <c r="F227" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="193.5">
       <c r="A228">
         <v>6</v>
       </c>
@@ -6286,13 +6309,16 @@
         <v>226</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E228" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="48">
+      <c r="F228" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="48">
       <c r="A229">
         <v>6</v>
       </c>
@@ -6303,13 +6329,16 @@
         <v>227</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E229" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="80.25">
+      <c r="F229" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="64.5">
       <c r="A230">
         <v>6</v>
       </c>
@@ -6320,13 +6349,16 @@
         <v>228</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E230" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="48">
+      <c r="F230" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="48">
       <c r="A231">
         <v>6</v>
       </c>
@@ -6337,13 +6369,16 @@
         <v>229</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E231" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="113.25">
+      <c r="F231" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="96">
       <c r="A232">
         <v>6</v>
       </c>
@@ -6354,13 +6389,16 @@
         <v>230</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E232" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="48">
+      <c r="F232" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="48">
       <c r="A233">
         <v>6</v>
       </c>
@@ -6371,13 +6409,16 @@
         <v>231</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E233" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="64.5">
+      <c r="F233" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="48">
       <c r="A234">
         <v>6</v>
       </c>
@@ -6388,13 +6429,16 @@
         <v>232</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E234" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="113.25">
+      <c r="F234" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="80.25">
       <c r="A235">
         <v>6</v>
       </c>
@@ -6405,13 +6449,16 @@
         <v>233</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E235" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="139.5">
+      <c r="F235" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="108">
       <c r="A236">
         <v>6</v>
       </c>
@@ -6422,13 +6469,16 @@
         <v>234</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E236" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="64.5">
+      <c r="F236" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="48">
       <c r="A237">
         <v>6</v>
       </c>
@@ -6439,13 +6489,16 @@
         <v>235</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E237" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="177.75">
+      <c r="F237" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="113.25">
       <c r="A238">
         <v>6</v>
       </c>
@@ -6456,13 +6509,16 @@
         <v>236</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E238" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="96">
+      <c r="F238" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="80.25">
       <c r="A239">
         <v>6</v>
       </c>
@@ -6473,13 +6529,16 @@
         <v>237</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E239" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="129">
+      <c r="F239" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="96">
       <c r="A240">
         <v>6</v>
       </c>
@@ -6490,13 +6549,16 @@
         <v>238</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E240" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="113.25">
+      <c r="F240" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="80.25">
       <c r="A241">
         <v>6</v>
       </c>
@@ -6507,13 +6569,16 @@
         <v>239</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E241" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="64.5">
+      <c r="F241" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="48">
       <c r="A242">
         <v>6</v>
       </c>
@@ -6524,13 +6589,16 @@
         <v>240</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E242" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="80.25">
+      <c r="F242" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="64.5">
       <c r="A243">
         <v>6</v>
       </c>
@@ -6541,13 +6609,16 @@
         <v>241</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E243" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="156">
+      <c r="F243" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="123.75">
       <c r="A244">
         <v>6</v>
       </c>
@@ -6555,16 +6626,19 @@
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E244" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="80.25">
+      <c r="F244" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="64.5">
       <c r="A245">
         <v>6</v>
       </c>
@@ -6575,13 +6649,16 @@
         <v>242</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E245" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="139.5">
+      <c r="F245" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="123.75">
       <c r="A246">
         <v>6</v>
       </c>
@@ -6592,13 +6669,16 @@
         <v>243</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E246" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="156">
+      <c r="F246" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="123.75">
       <c r="A247">
         <v>6</v>
       </c>
@@ -6609,13 +6689,16 @@
         <v>244</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E247" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="139.5">
+      <c r="F247" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="123.75">
       <c r="A248">
         <v>6</v>
       </c>
@@ -6623,16 +6706,19 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E248" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="113.25">
+      <c r="F248" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="80.25">
       <c r="A249">
         <v>6</v>
       </c>
@@ -6643,13 +6729,16 @@
         <v>245</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E249" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="96">
+      <c r="F249" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="80.25">
       <c r="A250">
         <v>6</v>
       </c>
@@ -6660,13 +6749,16 @@
         <v>246</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E250" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="64.5">
+      <c r="F250" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="48">
       <c r="A251">
         <v>6</v>
       </c>
@@ -6677,13 +6769,16 @@
         <v>247</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E251" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="96">
+      <c r="F251" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="64.5">
       <c r="A252">
         <v>7</v>
       </c>
@@ -6694,13 +6789,16 @@
         <v>248</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E252" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="209.25">
+        <v>290</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="161.25">
       <c r="A253">
         <v>7</v>
       </c>
@@ -6711,13 +6809,16 @@
         <v>249</v>
       </c>
       <c r="D253" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E253" t="s">
         <v>290</v>
       </c>
-      <c r="E253" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="145.5">
+      <c r="F253" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="96">
       <c r="A254">
         <v>7</v>
       </c>
@@ -6728,13 +6829,16 @@
         <v>250</v>
       </c>
       <c r="D254" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E254" t="s">
+        <v>290</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E254" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="145.5">
+    </row>
+    <row r="255" spans="1:6" ht="113.25">
       <c r="A255">
         <v>7</v>
       </c>
@@ -6745,13 +6849,16 @@
         <v>251</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E255" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="48">
+        <v>290</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="48">
       <c r="A256">
         <v>7</v>
       </c>
@@ -6762,13 +6869,16 @@
         <v>252</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E256" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="48">
+        <v>290</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="48">
       <c r="A257">
         <v>7</v>
       </c>
@@ -6779,13 +6889,16 @@
         <v>253</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E257" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="113.25">
+        <v>290</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="80.25">
       <c r="A258">
         <v>7</v>
       </c>
@@ -6796,13 +6909,16 @@
         <v>254</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E258" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="409.6">
+        <v>290</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="409.6">
       <c r="A259">
         <v>0</v>
       </c>
@@ -6813,7 +6929,10 @@
         <v>0</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
+      </c>
+      <c r="E259" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
